--- a/StructureDefinition-ext-R5-PaymentReconciliation.allocation.xlsx
+++ b/StructureDefinition-ext-R5-PaymentReconciliation.allocation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="260">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -477,7 +477,7 @@
     <t>Extension.extension:target.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Claim|0.0.1-snapshot-3|Claim|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Account|0.0.1-snapshot-3|Account|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Invoice|0.0.1-snapshot-3|Invoice|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItem|0.0.1-snapshot-3|ChargeItem|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Contract|0.0.1-snapshot-3|Contract|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Claim|Claim|http://hl7.org/fhir/5.0/StructureDefinition/profile-Account|Account|http://hl7.org/fhir/5.0/StructureDefinition/profile-Invoice|Invoice|http://hl7.org/fhir/5.0/StructureDefinition/profile-ChargeItem|ChargeItem|http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter|http://hl7.org/fhir/5.0/StructureDefinition/profile-Contract|Contract)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Extension.extension:account.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Account|0.0.1-snapshot-3|Account|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Account|Account)
 </t>
   </si>
   <si>
@@ -626,12 +626,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-payment-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:submitter</t>
   </si>
   <si>
@@ -663,7 +657,7 @@
     <t>Extension.extension:submitter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -699,7 +693,7 @@
     <t>Extension.extension:response.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClaimResponse|0.0.1-snapshot-3|ClaimResponse|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClaimResponse|ClaimResponse)
 </t>
   </si>
   <si>
@@ -769,7 +763,7 @@
     <t>Extension.extension:responsible.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1197,7 +1191,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.7109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5255,11 +5249,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -5297,13 +5293,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5328,14 +5324,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5404,7 +5400,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5507,7 +5503,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5612,7 +5608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5655,7 +5651,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5717,7 +5713,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>122</v>
@@ -5743,13 +5739,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5820,13 +5816,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5851,14 +5847,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5927,7 +5923,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -6030,7 +6026,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -6135,7 +6131,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6178,7 +6174,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6240,7 +6236,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6266,13 +6262,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6343,13 +6339,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6374,14 +6370,14 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6450,7 +6446,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>105</v>
@@ -6553,7 +6549,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>107</v>
@@ -6658,7 +6654,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6701,7 +6697,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6763,7 +6759,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6789,13 +6785,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6866,13 +6862,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6897,14 +6893,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6973,7 +6969,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7076,7 +7072,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7181,7 +7177,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7224,7 +7220,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7286,7 +7282,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7312,13 +7308,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7389,13 +7385,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7420,14 +7416,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7496,7 +7492,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7599,7 +7595,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7704,7 +7700,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7747,7 +7743,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7809,7 +7805,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7835,13 +7831,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7912,13 +7908,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7943,14 +7939,14 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8019,7 +8015,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8122,7 +8118,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8227,7 +8223,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8270,7 +8266,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8332,7 +8328,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8358,13 +8354,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8566,13 +8562,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
